--- a/平成31年度/01_参加申込関連/08.24-25_第８回　真夏の王子サマーリーグ２０１９　ミニバスケットボール大会/真夏の王子サマーリーグ2019　申し込み.xlsx
+++ b/平成31年度/01_参加申込関連/08.24-25_第８回　真夏の王子サマーリーグ２０１９　ミニバスケットボール大会/真夏の王子サマーリーグ2019　申し込み.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.実施要項" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1.実施要項'!$A$1:$L$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2.メンバー表'!$A$3:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'3.プログラム申込'!$A$1:$H$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
   <si>
     <t>開催趣旨：</t>
     <rPh sb="0" eb="2">
@@ -1327,6 +1328,272 @@
       <t>エン</t>
     </rPh>
     <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>「ディフェンスを頑張り、走れるチーム！」を目指し、日頃の練習の成果がひとつでも多く出せるよう、大きな声を出して頑張ります！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃尾ウィザーズ</t>
+    <rPh sb="0" eb="2">
+      <t>トチオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諸橋　裕哉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川上　剛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波形　茜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川上　剛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>波形　胡汰</t>
+  </si>
+  <si>
+    <t>山田　朔太郎</t>
+  </si>
+  <si>
+    <t>中村　利壱</t>
+  </si>
+  <si>
+    <t>萩原　慧太</t>
+  </si>
+  <si>
+    <t>諸橋　直紀</t>
+  </si>
+  <si>
+    <t>佐藤　啓人</t>
+  </si>
+  <si>
+    <t>佐藤　悠斗</t>
+  </si>
+  <si>
+    <t>佐藤　大翔</t>
+  </si>
+  <si>
+    <t>多田　康惺</t>
+  </si>
+  <si>
+    <t>大﨑 滉太</t>
+  </si>
+  <si>
+    <t>大橋 琉生</t>
+  </si>
+  <si>
+    <t>韮澤 嘉唯</t>
+  </si>
+  <si>
+    <t>多田　隼兜</t>
+  </si>
+  <si>
+    <t>大港 一徹</t>
+  </si>
+  <si>
+    <t>佐藤　壮汰朗</t>
+  </si>
+  <si>
+    <t>なみかた　こた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やまだ　さくたろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なかむら　りいち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はぎはら　けいた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もろはし　なおき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとう　けいと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとう　はると</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとう　ひろと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ　こうせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おおさき　こうた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おおはし　るい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にらさわ　かい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ　はやと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おおみなと　いってつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとう　そうたろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強気で行く！！</t>
+    <rPh sb="0" eb="2">
+      <t>ツヨキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1試合で10点取る！</t>
+    <rPh sb="1" eb="3">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1本でも多くシュートを決める</t>
+    <rPh sb="1" eb="2">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディフェンスカバーをがんばる！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰よりも多くリバウンドをとる！</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻め気をもって強気でがんばります</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツヨキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オフェンスでもディフェンスでも早く動けるようにがんばります</t>
+    <rPh sb="15" eb="16">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール下は必ず決めます！</t>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンスの時まで、声出しをがんばります！</t>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積極的にがんばります。</t>
+    <rPh sb="0" eb="3">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃尾ウィザーズ</t>
+    <rPh sb="0" eb="2">
+      <t>トチオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諸橋　裕哉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新潟県長岡市北荷頃5059-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-2313-5084</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りいち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>るい</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2456,7 +2723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2514,9 +2781,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2525,9 +2789,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2666,6 +2927,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -2835,6 +3099,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3219,7 +3495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:L5"/>
     </sheetView>
   </sheetViews>
@@ -3237,36 +3513,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
@@ -3291,32 +3567,32 @@
         <v>0</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -3373,16 +3649,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
@@ -3407,16 +3683,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
@@ -3441,32 +3717,32 @@
         <v>2</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
@@ -3491,16 +3767,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
@@ -3544,15 +3820,15 @@
       <c r="E19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
@@ -3560,15 +3836,15 @@
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
@@ -3578,15 +3854,15 @@
       <c r="E21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
@@ -3596,15 +3872,15 @@
       <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
@@ -3612,15 +3888,15 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
@@ -3628,15 +3904,15 @@
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
@@ -3660,48 +3936,48 @@
         <v>8</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
@@ -3747,15 +4023,15 @@
       <c r="E31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
@@ -3763,15 +4039,15 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
@@ -3779,15 +4055,15 @@
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
@@ -3812,16 +4088,16 @@
         <v>10</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
     </row>
     <row r="36" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
@@ -3880,48 +4156,48 @@
         <v>12</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="74" t="s">
+      <c r="E39" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="74" t="s">
+      <c r="E40" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="74" t="s">
+      <c r="E41" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
     </row>
     <row r="42" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
@@ -3949,15 +4225,15 @@
       <c r="E43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="76" t="s">
+      <c r="F43" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
@@ -3967,15 +4243,15 @@
       <c r="E44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="76" t="s">
+      <c r="F44" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
@@ -3985,15 +4261,15 @@
       <c r="E45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="74" t="s">
+      <c r="F45" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
@@ -4003,15 +4279,15 @@
       <c r="E46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="76" t="s">
+      <c r="F46" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
@@ -4021,15 +4297,15 @@
       <c r="E47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="74" t="s">
+      <c r="F47" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
@@ -4037,13 +4313,13 @@
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
@@ -4053,15 +4329,15 @@
       <c r="E49" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="75" t="s">
+      <c r="F49" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
@@ -4071,15 +4347,15 @@
       <c r="E50" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="75" t="s">
+      <c r="F50" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
@@ -4089,15 +4365,15 @@
       <c r="E51" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
@@ -4112,42 +4388,42 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4198,7 +4474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -4217,144 +4493,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="str">
+      <c r="A1" s="77" t="str">
         <f>'1.実施要項'!A1:L1</f>
         <v>第８回　真夏の王子サマーリーグ２０１９　ミニバスケットボール大会</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="85"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="85"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="95"/>
+      <c r="A9" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="94"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
@@ -4362,26 +4650,26 @@
       <c r="A11" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="99" t="s">
+      <c r="E11" s="99"/>
+      <c r="F11" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="99" t="s">
+      <c r="G11" s="99"/>
+      <c r="H11" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="63" t="s">
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="61" t="s">
         <v>77</v>
       </c>
       <c r="L11" s="16"/>
@@ -4393,19 +4681,29 @@
       <c r="B12" s="18">
         <v>4</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="63" t="s">
+      <c r="C12" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="65">
+        <v>6</v>
+      </c>
+      <c r="E12" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="64" t="s">
+      <c r="F12" s="64">
+        <v>137</v>
+      </c>
+      <c r="G12" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="20"/>
+      <c r="H12" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4415,19 +4713,27 @@
       <c r="B13" s="18">
         <v>5</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="63" t="s">
+      <c r="C13" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="65">
+        <v>6</v>
+      </c>
+      <c r="E13" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="64" t="s">
+      <c r="F13" s="64">
+        <v>145</v>
+      </c>
+      <c r="G13" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="20"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4437,19 +4743,29 @@
       <c r="B14" s="18">
         <v>6</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="63" t="s">
+      <c r="C14" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="65">
+        <v>6</v>
+      </c>
+      <c r="E14" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="64" t="s">
+      <c r="F14" s="64">
+        <v>153</v>
+      </c>
+      <c r="G14" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="20"/>
+      <c r="H14" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="103"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4459,19 +4775,29 @@
       <c r="B15" s="18">
         <v>7</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="63" t="s">
+      <c r="C15" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="65">
+        <v>6</v>
+      </c>
+      <c r="E15" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="64" t="s">
+      <c r="F15" s="64">
+        <v>140</v>
+      </c>
+      <c r="G15" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="20"/>
+      <c r="H15" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4481,19 +4807,27 @@
       <c r="B16" s="18">
         <v>8</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="63" t="s">
+      <c r="C16" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="65">
+        <v>6</v>
+      </c>
+      <c r="E16" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="64" t="s">
+      <c r="F16" s="64">
+        <v>141</v>
+      </c>
+      <c r="G16" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="20"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4503,19 +4837,27 @@
       <c r="B17" s="18">
         <v>9</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="63" t="s">
+      <c r="C17" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="65">
+        <v>6</v>
+      </c>
+      <c r="E17" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="64" t="s">
+      <c r="F17" s="64">
+        <v>141</v>
+      </c>
+      <c r="G17" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="20"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4525,19 +4867,27 @@
       <c r="B18" s="18">
         <v>10</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="63" t="s">
+      <c r="C18" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="65">
+        <v>6</v>
+      </c>
+      <c r="E18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="64" t="s">
+      <c r="F18" s="64">
+        <v>143</v>
+      </c>
+      <c r="G18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="103"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="20"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4547,19 +4897,29 @@
       <c r="B19" s="18">
         <v>11</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="63" t="s">
+      <c r="C19" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="65">
+        <v>6</v>
+      </c>
+      <c r="E19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="64" t="s">
+      <c r="F19" s="64">
+        <v>143</v>
+      </c>
+      <c r="G19" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="20"/>
+      <c r="H19" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="103"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4569,19 +4929,29 @@
       <c r="B20" s="18">
         <v>12</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="63" t="s">
+      <c r="C20" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="65">
+        <v>5</v>
+      </c>
+      <c r="E20" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="64" t="s">
+      <c r="F20" s="64">
+        <v>140</v>
+      </c>
+      <c r="G20" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="103"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="20"/>
+      <c r="H20" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="103"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4591,19 +4961,29 @@
       <c r="B21" s="18">
         <v>13</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="63" t="s">
+      <c r="C21" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="65">
+        <v>5</v>
+      </c>
+      <c r="E21" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="64" t="s">
+      <c r="F21" s="64">
+        <v>140</v>
+      </c>
+      <c r="G21" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="20"/>
+      <c r="H21" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="128"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="L21" s="16"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4613,19 +4993,29 @@
       <c r="B22" s="18">
         <v>14</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="63" t="s">
+      <c r="C22" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="65">
+        <v>5</v>
+      </c>
+      <c r="E22" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="64" t="s">
+      <c r="F22" s="64">
+        <v>140</v>
+      </c>
+      <c r="G22" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="20"/>
+      <c r="H22" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="103"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4635,19 +5025,27 @@
       <c r="B23" s="18">
         <v>15</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="63" t="s">
+      <c r="C23" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="65">
+        <v>4</v>
+      </c>
+      <c r="E23" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="64" t="s">
+      <c r="F23" s="64">
+        <v>139</v>
+      </c>
+      <c r="G23" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="103"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="20"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4657,19 +5055,29 @@
       <c r="B24" s="18">
         <v>16</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63" t="s">
+      <c r="C24" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="60">
+        <v>4</v>
+      </c>
+      <c r="E24" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="64" t="s">
+      <c r="F24" s="60">
+        <v>135</v>
+      </c>
+      <c r="G24" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="20"/>
+      <c r="H24" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4679,75 +5087,97 @@
       <c r="B25" s="18">
         <v>17</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63" t="s">
+      <c r="C25" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="60">
+        <v>4</v>
+      </c>
+      <c r="E25" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="64" t="s">
+      <c r="F25" s="60">
+        <v>140</v>
+      </c>
+      <c r="G25" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="20"/>
+      <c r="H25" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>18</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>18</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25" t="s">
+      <c r="C26" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="22">
+        <v>4</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="22">
+        <v>144</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="20"/>
+      <c r="H26" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="30"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -4808,7 +5238,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -4828,249 +5258,268 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="str">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="77" t="str">
         <f>'1.実施要項'!A1:L1</f>
         <v>第８回　真夏の王子サマーリーグ２０１９　ミニバスケットボール大会</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="118" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="30"/>
+      <c r="B3" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-    </row>
-    <row r="7" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36" t="s">
+      <c r="C6" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+    </row>
+    <row r="7" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="124"/>
-    </row>
-    <row r="8" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="37" t="s">
+      <c r="C7" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123"/>
+    </row>
+    <row r="8" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="30"/>
+      <c r="B8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
-    </row>
-    <row r="9" spans="1:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="38" t="s">
+      <c r="C8" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+    </row>
+    <row r="9" spans="1:10" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46" t="s">
+      <c r="C9" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="126"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="58">
+        <v>3</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="47">
         <f>D12*F15</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="50" t="s">
+        <v>600</v>
+      </c>
+      <c r="H12" s="48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="53" t="s">
+      <c r="J12" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="J13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="J14" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="52">
         <v>1</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="54">
         <v>200</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="58"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="115" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="115" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="116"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="59"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="59"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -5118,236 +5567,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="str">
+      <c r="A1" s="77" t="str">
         <f>'1.実施要項'!A1:L1</f>
         <v>第８回　真夏の王子サマーリーグ２０１９　ミニバスケットボール大会</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="118" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="70"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
     </row>
     <row r="7" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="124"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123"/>
     </row>
     <row r="8" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
     </row>
     <row r="9" spans="1:8" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="68"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="58"/>
+      <c r="E12" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="47">
         <f>D12*F15</f>
         <v>0</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="48" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="52">
         <v>1</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="54">
         <v>500</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="115" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="115" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="69"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="69"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
